--- a/biology/Mycologie/Lichen_à_caribou/Lichen_à_caribou.xlsx
+++ b/biology/Mycologie/Lichen_à_caribou/Lichen_à_caribou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lichen_%C3%A0_caribou</t>
+          <t>Lichen_à_caribou</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cladonie étoilée, Lichen à caribou
-Cladonia stellaris, la Cladonie étoilée[1] ou encore le Lichen à caribou, est une espèce de lichens formant de vastes tapis sur le sol des régions boréales et arctiques. Tout comme les espèces proches et en particulier Cladonia rangiferina, elle constitue une source de nourriture privilégiée pour les rennes durant l'hiver[2].
+Cladonia stellaris, la Cladonie étoilée ou encore le Lichen à caribou, est une espèce de lichens formant de vastes tapis sur le sol des régions boréales et arctiques. Tout comme les espèces proches et en particulier Cladonia rangiferina, elle constitue une source de nourriture privilégiée pour les rennes durant l'hiver.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lichen_%C3%A0_caribou</t>
+          <t>Lichen_à_caribou</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Cladonia stellaris (Opiz) Pouzar &amp; Vězda, 1971[3].
-L'espèce a été initialement classée dans le genre Cenomyce sous le basionyme Cenomyce stellaris Opiz, 1823[3].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Cladonie étoilée[1].
-Cladonia stellaris a pour synonymes[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Cladonia stellaris (Opiz) Pouzar &amp; Vězda, 1971.
+L'espèce a été initialement classée dans le genre Cenomyce sous le basionyme Cenomyce stellaris Opiz, 1823.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Cladonie étoilée.
+Cladonia stellaris a pour synonymes :
 Cenomyce stellaris Opiz, 1823
 Cladina alpestris (L.) Nyl., 1896
 Cladina stellaris (Opiz) Brodo, 1976
